--- a/ref/단위 크기와 포지션 크기.xlsx
+++ b/ref/단위 크기와 포지션 크기.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fire2030\Git\251231\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE507CC0-DD0B-41BF-AA56-F6163E762EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CC89E1-4596-4289-BA96-56BA189002B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49200" yWindow="7620" windowWidth="30960" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="나스닥100_선물 (2)" sheetId="5" r:id="rId1"/>
+    <sheet name="Crude Oil_선물 (2)" sheetId="5" r:id="rId1"/>
     <sheet name="나스닥100_선물" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1 (3)" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId4"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="36">
   <si>
     <t>Close</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -163,6 +163,26 @@
   </si>
   <si>
     <t>1틱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tick Size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tick Value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crude Oil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10틱</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -513,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB74ACFB-F549-45C9-BBC7-73464F0FDEE8}">
-  <dimension ref="B2:J25"/>
+  <dimension ref="B2:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:N1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -525,17 +545,14 @@
     <col min="5" max="5" width="14.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
       <c r="F2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="F3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -544,13 +561,16 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -561,22 +581,25 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>14715</v>
+        <v>93.78</v>
       </c>
       <c r="G4">
-        <v>14730</v>
+        <v>93.78</v>
       </c>
       <c r="H4">
-        <v>14730</v>
+        <v>93.78</v>
       </c>
       <c r="I4">
-        <v>14730</v>
+        <v>93.78</v>
       </c>
       <c r="J4">
-        <v>14730</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+        <v>93.78</v>
+      </c>
+      <c r="K4">
+        <v>93.78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -584,7 +607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -596,22 +619,25 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>222.74</v>
+        <v>2.1</v>
       </c>
       <c r="G6">
-        <v>34</v>
+        <v>0.3</v>
       </c>
       <c r="H6">
-        <v>43</v>
+        <v>0.2</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>0.04</v>
       </c>
       <c r="J6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+        <v>0.05</v>
+      </c>
+      <c r="K6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -622,27 +648,31 @@
         <v>7</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" ref="F7:J7" si="0">F6/F4</f>
-        <v>1.5136935100237853E-2</v>
+        <f t="shared" ref="F7:K7" si="0">F6/F4</f>
+        <v>2.2392834293026232E-2</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>2.3082145281737949E-3</v>
+        <v>3.1989763275751758E-3</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>2.9192124915139173E-3</v>
+        <v>2.1326508850501172E-3</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="0"/>
-        <v>2.0366598778004074E-4</v>
+        <v>4.2653017701002344E-4</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="0"/>
-        <v>1.3577732518669383E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+        <v>5.331627212625293E-4</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0663254425250586E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -653,23 +683,32 @@
       <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="F8">
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <v>20</v>
-      </c>
-      <c r="H8">
-        <v>20</v>
+      <c r="F8" s="2">
+        <f t="shared" ref="F8:K8" si="1">$F$15</f>
+        <v>1000</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
+        <v>1000</v>
       </c>
       <c r="I8" s="2">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1000</v>
       </c>
       <c r="J8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+        <f>$F$15</f>
+        <v>1000</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="E9" t="s">
         <v>9</v>
       </c>
@@ -688,68 +727,83 @@
       <c r="J9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" ref="F10:J10" si="1">$C$8/(F$4*F$9*F$6*F$8)</f>
-        <v>1.0551358250668399E-4</v>
+        <f t="shared" ref="F10:K10" si="2">$C$8/(F$4*F$9*F$6*F$8)</f>
+        <v>3.5121036400626929E-2</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="1"/>
-        <v>6.905341905940924E-4</v>
+        <f t="shared" si="2"/>
+        <v>0.24584725480438854</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="1"/>
-        <v>5.4600377860928239E-4</v>
+        <f t="shared" si="2"/>
+        <v>0.36877088220658277</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="1"/>
-        <v>7.8260541600663799E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.8438544110329138</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="1"/>
-        <v>1.1739081240099571</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+        <f t="shared" si="2"/>
+        <v>1.4750835288263311</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="2"/>
+        <v>7.3754176441316552</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="E13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>0.01</v>
+      </c>
+      <c r="G13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="E14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="E15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="E16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F15">
+        <f>F14/F13</f>
+        <v>1000</v>
+      </c>
+      <c r="G15">
+        <f>G14/G13</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -760,7 +814,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -768,7 +822,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -776,7 +830,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -788,7 +842,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -1250,7 +1304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F8DF4F-6C81-427F-AE47-4B207F04D663}">
   <dimension ref="B2:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
